--- a/Facebook Posts Q1andQ2.xlsx
+++ b/Facebook Posts Q1andQ2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tasha/Desktop/NPLF-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42ED0C74-2859-9242-BB27-34E10C9AE65B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E4EF3A-FB77-F546-A2DF-0464CA92EA96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1747,7 +1747,7 @@
   <dimension ref="A1:AH120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
